--- a/Odds-Data/Odds-Data-Clean/2016-17.xlsx
+++ b/Odds-Data/Odds-Data-Clean/2016-17.xlsx
@@ -1273,10 +1273,10 @@
     <t>-353</t>
   </si>
   <si>
+    <t>-225</t>
+  </si>
+  <si>
     <t>234</t>
-  </si>
-  <si>
-    <t>-225</t>
   </si>
   <si>
     <t>361</t>
@@ -13739,7 +13739,7 @@
         <v>354</v>
       </c>
       <c r="I372">
-        <v>22</v>
+        <v>224</v>
       </c>
       <c r="J372">
         <v>2</v>
@@ -42728,7 +42728,7 @@
         <v>417</v>
       </c>
       <c r="H1278" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I1278">
         <v>225</v>
@@ -43001,13 +43001,13 @@
         <v>191</v>
       </c>
       <c r="C1287" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="D1287" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E1287">
-        <v>209</v>
+        <v>211.5</v>
       </c>
       <c r="F1287">
         <v>5.5</v>
@@ -43016,13 +43016,13 @@
         <v>419</v>
       </c>
       <c r="H1287" t="s">
-        <v>417</v>
+        <v>480</v>
       </c>
       <c r="I1287">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="J1287">
-        <v>-7</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="1288" spans="1:10">
@@ -43030,31 +43030,31 @@
         <v>1286</v>
       </c>
       <c r="B1288" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C1288" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="D1288" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E1288">
-        <v>214.5</v>
+        <v>209</v>
       </c>
       <c r="F1288">
         <v>5.5</v>
       </c>
       <c r="G1288" t="s">
-        <v>333</v>
+        <v>420</v>
       </c>
       <c r="H1288" t="s">
-        <v>294</v>
+        <v>417</v>
       </c>
       <c r="I1288">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="J1288">
-        <v>19</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="1289" spans="1:10">
@@ -43062,31 +43062,31 @@
         <v>1287</v>
       </c>
       <c r="B1289" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C1289" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D1289" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="E1289">
-        <v>215</v>
+        <v>214.5</v>
       </c>
       <c r="F1289">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="G1289" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="H1289" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="I1289">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="J1289">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1290" spans="1:10">
@@ -43097,28 +43097,28 @@
         <v>192</v>
       </c>
       <c r="C1290" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D1290" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1290">
         <v>215</v>
       </c>
-      <c r="E1290">
-        <v>211.5</v>
-      </c>
       <c r="F1290">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="G1290" t="s">
-        <v>420</v>
+        <v>305</v>
       </c>
       <c r="H1290" t="s">
-        <v>480</v>
+        <v>309</v>
       </c>
       <c r="I1290">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="J1290">
-        <v>-11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1291" spans="1:10">
@@ -43173,7 +43173,7 @@
         <v>6</v>
       </c>
       <c r="G1292" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H1292" t="s">
         <v>480</v>
